--- a/REGULAR/ADMIN/FERMA, JOSEFA.xlsx
+++ b/REGULAR/ADMIN/FERMA, JOSEFA.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="481">
   <si>
     <t>PERIOD</t>
   </si>
@@ -4288,9 +4288,9 @@
   <dimension ref="A2:K582"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A557" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A563" activePane="bottomLeft"/>
       <selection activeCell="E6" sqref="E6"/>
-      <selection pane="bottomLeft" activeCell="E575" sqref="E575"/>
+      <selection pane="bottomLeft" activeCell="K577" sqref="K577"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4451,7 +4451,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>19.576999999999941</v>
+        <v>22.326999999999941</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4461,7 +4461,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>171.5</v>
+        <v>175.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -17235,13 +17235,15 @@
         <v>45170</v>
       </c>
       <c r="B574" s="20"/>
-      <c r="C574" s="13"/>
+      <c r="C574" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D574" s="39"/>
       <c r="E574" s="9"/>
       <c r="F574" s="20"/>
-      <c r="G574" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G574" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H574" s="39"/>
       <c r="I574" s="9"/>
@@ -17255,15 +17257,17 @@
       <c r="B575" s="20" t="s">
         <v>479</v>
       </c>
-      <c r="C575" s="13"/>
+      <c r="C575" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D575" s="39">
         <v>3</v>
       </c>
       <c r="E575" s="9"/>
       <c r="F575" s="20"/>
-      <c r="G575" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G575" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H575" s="39"/>
       <c r="I575" s="9"/>
@@ -17277,13 +17281,15 @@
         <v>45231</v>
       </c>
       <c r="B576" s="20"/>
-      <c r="C576" s="13"/>
+      <c r="C576" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D576" s="39"/>
       <c r="E576" s="9"/>
       <c r="F576" s="20"/>
-      <c r="G576" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G576" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H576" s="39"/>
       <c r="I576" s="9"/>
@@ -17294,9 +17300,13 @@
       <c r="A577" s="40">
         <v>45261</v>
       </c>
-      <c r="B577" s="20"/>
+      <c r="B577" s="20" t="s">
+        <v>462</v>
+      </c>
       <c r="C577" s="13"/>
-      <c r="D577" s="39"/>
+      <c r="D577" s="39">
+        <v>1</v>
+      </c>
       <c r="E577" s="9"/>
       <c r="F577" s="20"/>
       <c r="G577" s="13" t="str">
@@ -17306,7 +17316,9 @@
       <c r="H577" s="39"/>
       <c r="I577" s="9"/>
       <c r="J577" s="11"/>
-      <c r="K577" s="20"/>
+      <c r="K577" s="48">
+        <v>45266</v>
+      </c>
     </row>
     <row r="578" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A578" s="40">
@@ -17566,7 +17578,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>191.07699999999994</v>
+        <v>197.57699999999994</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
